--- a/biology/Médecine/Santé_au_Gabon/Santé_au_Gabon.xlsx
+++ b/biology/Médecine/Santé_au_Gabon/Santé_au_Gabon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_au_Gabon</t>
+          <t>Santé_au_Gabon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -488,7 +500,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_au_Gabon</t>
+          <t>Santé_au_Gabon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -508,10 +520,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Premiers hôpitaux
-L'hôpital Albert Schweitzer fondé en 1913 à Lambaréné, au Gabon, fait partie des premières structures hospitalières construites dans le pays, avec l'hôpital de l'Alliance Chrétienne de Bongolo à Lébamba en 1977[1].
-Depuis l'indépendance
-Depuis l'an 2000, le Gabon met l'accent sur ses structures de santé à travers la construction de nouvelles infrastructures médicales, parmi lesquelles : 
+          <t>Premiers hôpitaux</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital Albert Schweitzer fondé en 1913 à Lambaréné, au Gabon, fait partie des premières structures hospitalières construites dans le pays, avec l'hôpital de l'Alliance Chrétienne de Bongolo à Lébamba en 1977.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Santé_au_Gabon</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sant%C3%A9_au_Gabon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Depuis l'indépendance</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Depuis l'an 2000, le Gabon met l'accent sur ses structures de santé à travers la construction de nouvelles infrastructures médicales, parmi lesquelles : 
 L'institut de cancérologie de Libreville (ICL).
 Le centre hospitalier universitaire d'Angondjé.
 Le centre hospitalier universitaire de Libreville.
@@ -520,50 +572,13 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Sant%C3%A9_au_Gabon</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sant%C3%A9_au_Gabon</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Système de santé</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Il existe trois types de structures de santé au Gabon : les publiques, les paramilitaires et les privées[2],[3].
-En 2019, le Gabon comptait 542 établissements médicaux. Les hôpitaux principaux sont listés ci-dessous[4].
-`
-Financement
-Le village numérique, initiative de la compagnie Samsung, dont la première unité a été inaugurée en 2015, vient en appui aux régions les plus reculées du pays en termes d'infrastructures technologiques sur la santé[7].
-Systèmes d'assurance maladie
-Médecine traditionnelle
-Médecine conventionnelle</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_au_Gabon</t>
+          <t>Santé_au_Gabon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,22 +593,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Soins de santé</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Indicateurs de santé
-Un Système National d'Information Sanitaire (SNIS) a été mis en place avec pour objectif de produire, analyser et diffuser à temps des données fiables sur la santé publique[8].
-Pathologies
-Maladies transmissibles
-À cause de la prévalence des moustiques, la fièvre jaune, le paludisme, la dengue, le chikungunya, et zika sont présents au Gabon[9]. Des cas de fièvre de Marburg ont également été détectés à la frontière avec la Guinée Équatoriale et le Cameroun.
-La vaccination contre la fièvre jaune est obligatoire et un certificat est exigé à l'arrivée[10].
-Maladies non transmissibles
-Maladies héréditaires
-Santé mentale
-La santé mentale est très peu prise en charge au Gabon[11]. En 2020, le pays compte 5 psychiatres, 1.3% du budget dédié à la santé est alloué à la santé mentale[12].
-Le Centre National de Santé Mentale (CNSM) de Mélen est le seul établissement  dédié à la santé mentale du pays et compte 70 lits. L'établissement n'a pas de toilettes, et pas de plateau technique, il manque de soignants et les financements sont largement insuffisants[13]. Le Covid-19 a amplifié la situation, avec un arrêt des consultations en milieu rural et en ambulatoire. Il n'y a avait pas de protections nécessaires contre le Covid-19 dans l'établissement.
+          <t>Système de santé</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe trois types de structures de santé au Gabon : les publiques, les paramilitaires et les privées,.
+En 2019, le Gabon comptait 542 établissements médicaux. Les hôpitaux principaux sont listés ci-dessous.
+`
 </t>
         </is>
       </c>
@@ -604,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_au_Gabon</t>
+          <t>Santé_au_Gabon</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,12 +628,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Formation</t>
+          <t>Système de santé</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le Gabon dispose de trois établissements de formation dans le domaine de la santé : l'ancienne faculté de l'université Omar Bongo, nommée « Centre universitaire des sciences de la santé », l'Université des sciences de la santé de Libreville, et l'ancienne Ecole de Santé, devenu l'Institut de Formation d'Action Sanitaire et Social (INFASS).
+          <t>Financement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le village numérique, initiative de la compagnie Samsung, dont la première unité a été inaugurée en 2015, vient en appui aux régions les plus reculées du pays en termes d'infrastructures technologiques sur la santé.
 </t>
         </is>
       </c>
@@ -635,7 +650,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_au_Gabon</t>
+          <t>Santé_au_Gabon</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -650,10 +665,166 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Soins de santé</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Indicateurs de santé</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un Système National d'Information Sanitaire (SNIS) a été mis en place avec pour objectif de produire, analyser et diffuser à temps des données fiables sur la santé publique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Santé_au_Gabon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sant%C3%A9_au_Gabon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Soins de santé</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Pathologies</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Maladies transmissibles</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À cause de la prévalence des moustiques, la fièvre jaune, le paludisme, la dengue, le chikungunya, et zika sont présents au Gabon. Des cas de fièvre de Marburg ont également été détectés à la frontière avec la Guinée Équatoriale et le Cameroun.
+La vaccination contre la fièvre jaune est obligatoire et un certificat est exigé à l'arrivée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Santé_au_Gabon</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sant%C3%A9_au_Gabon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Soins de santé</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Pathologies</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Santé mentale</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La santé mentale est très peu prise en charge au Gabon. En 2020, le pays compte 5 psychiatres, 1.3% du budget dédié à la santé est alloué à la santé mentale.
+Le Centre National de Santé Mentale (CNSM) de Mélen est le seul établissement  dédié à la santé mentale du pays et compte 70 lits. L'établissement n'a pas de toilettes, et pas de plateau technique, il manque de soignants et les financements sont largement insuffisants. Le Covid-19 a amplifié la situation, avec un arrêt des consultations en milieu rural et en ambulatoire. Il n'y a avait pas de protections nécessaires contre le Covid-19 dans l'établissement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Santé_au_Gabon</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sant%C3%A9_au_Gabon</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Gabon dispose de trois établissements de formation dans le domaine de la santé : l'ancienne faculté de l'université Omar Bongo, nommée « Centre universitaire des sciences de la santé », l'Université des sciences de la santé de Libreville, et l'ancienne Ecole de Santé, devenu l'Institut de Formation d'Action Sanitaire et Social (INFASS).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Santé_au_Gabon</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sant%C3%A9_au_Gabon</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Recherche</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Centre international de recherches médicales de Franceville (CIRMF) est le chef de file dans la recherche médicale. Il est situé dans la ville de Franceville au sud-est du pays. Le professeur Donatien Mavoungou avec plus de 30 années de carrière dans le domaine des maladies cardiovasculaires est parmi les chercheurs gabonais les plus connus au niveau international.[réf. nécessaire]
 </t>
